--- a/configuration/Chats.xlsx
+++ b/configuration/Chats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file\Kuliah\Softtest\Project\CodeMain\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BDD30B-DFA1-4E96-A672-9FE6412D9434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F15417C-7BD2-4AA5-B347-B45F0115276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>pegawai 2</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>Black Hat</t>
   </si>
 </sst>
 </file>
@@ -354,28 +366,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/configuration/Chats.xlsx
+++ b/configuration/Chats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file\Kuliah\Softtest\Project\CodeMain\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F15417C-7BD2-4AA5-B347-B45F0115276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23A800E-C5E3-45EB-A7BC-F97E6D3128FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,13 +42,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>pegawai 2</t>
-  </si>
-  <si>
     <t>course</t>
   </si>
   <si>
-    <t>Black Hat</t>
+    <t>instructor test</t>
+  </si>
+  <si>
+    <t>Red Hat</t>
   </si>
 </sst>
 </file>
@@ -369,12 +369,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,10 +385,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>

--- a/configuration/Chats.xlsx
+++ b/configuration/Chats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file\Kuliah\Softtest\Project\CodeMain\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23A800E-C5E3-45EB-A7BC-F97E6D3128FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F5CBA5-D352-4616-899B-B08D69689232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -48,7 +48,13 @@
     <t>instructor test</t>
   </si>
   <si>
-    <t>Red Hat</t>
+    <t>Python Intro</t>
+  </si>
+  <si>
+    <t>testcase2</t>
+  </si>
+  <si>
+    <t>I don’t know</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,6 +408,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
